--- a/reports/raw-views/assets/tables/micro_multi_all.xlsx
+++ b/reports/raw-views/assets/tables/micro_multi_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,4752 +471,3982 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1010101</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1070101</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4087278246879577</v>
+        <v>0.2228322774171829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1525139659643173</v>
+        <v>0.2870592772960663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1525139808654785</v>
+        <v>0.3458832502365112</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1414737552404403</v>
+        <v>0.1342481523752212</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1414737552404403</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.1249169930815696</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.441411405801773</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1010102</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1070102</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3405438959598541</v>
+        <v>0.2897847890853882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2566847503185272</v>
+        <v>0.4012357592582702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2566847503185272</v>
+        <v>0.2755033671855926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0852667689323425</v>
+        <v>0.1464267075061798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0852667763829231</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>0.1289703696966171</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4075840711593628</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1020104</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1070103</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2083850651979446</v>
+        <v>0.2318808436393737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1436709314584732</v>
+        <v>0.4278328418731689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1436709761619568</v>
+        <v>0.2346070110797882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1131141036748886</v>
+        <v>0.2300222218036651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1131140887737274</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.1770586222410202</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5215611457824707</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1020107</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1070105</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2614383101463318</v>
+        <v>0.185781717300415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1287121623754501</v>
+        <v>0.4481227993965149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1287121772766113</v>
+        <v>0.2925772070884704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0808954536914825</v>
+        <v>0.2049071639776229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0808954611420631</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>0.1616399884223938</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4935652911663055</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1030101</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1070106</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1540268808603286</v>
+        <v>0.3705377280712127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1017679050564765</v>
+        <v>0.4656500816345215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1017679125070571</v>
+        <v>0.552446722984314</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0893206596374511</v>
+        <v>0.2813068628311157</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0893206596374511</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>0.3283441364765167</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.492121160030365</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1030104</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1070107</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1353517919778823</v>
+        <v>0.2135114073753357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1600732654333114</v>
+        <v>0.4472656846046448</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160073235630989</v>
+        <v>0.3582558035850525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1067957431077957</v>
+        <v>0.1571032404899597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1067957356572151</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.1278544068336486</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4251018166542053</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1030105</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1070109</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3342388570308685</v>
+        <v>0.228298008441925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156530275940895</v>
+        <v>0.4393918216228485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1565303206443786</v>
+        <v>0.4358815252780914</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1724036931991577</v>
+        <v>0.2817708849906921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1724036931991577</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0.2388323694467544</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3627061247825622</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1040104</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1070110</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3654581904411316</v>
+        <v>0.2466276288032531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1448000818490982</v>
+        <v>0.3121280372142792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1448000967502594</v>
+        <v>0.2645584344863891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1272277683019638</v>
+        <v>0.2011014521121978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1272277534008026</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0.1916423141956329</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.574285626411438</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1040106</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1070111</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3750308156013489</v>
+        <v>0.184064969420433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1148622706532478</v>
+        <v>0.3422467112541199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1148622930049896</v>
+        <v>0.3634011149406433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1431005448102951</v>
+        <v>0.1949169635772705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1431005597114563</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.1852503269910812</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6180146932601929</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1050101</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1070112</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4549340903759002</v>
+        <v>0.1703273057937622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1873645633459091</v>
+        <v>0.2120788395404815</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1873645186424255</v>
+        <v>0.2630921304225921</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1165977790951728</v>
+        <v>0.1886345148086547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1165978014469146</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.1857380270957946</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.71628737449646</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1050102</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1070113</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2562646567821502</v>
+        <v>0.3445868492126465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2266192287206649</v>
+        <v>0.443207323551178</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2266192436218261</v>
+        <v>0.286968320608139</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09562899172306059</v>
+        <v>0.2355665266513824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09562899172306059</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.2156470417976379</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4042046070098877</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1050104</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1070114</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3436915278434753</v>
+        <v>0.2298395037651062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2035386562347412</v>
+        <v>0.4019764065742492</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2035386860370636</v>
+        <v>0.3997060358524322</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1037801429629325</v>
+        <v>0.2965547442436218</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1037801429629325</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0.2207383811473846</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3891574144363403</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1050105</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1070115</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1989315301179886</v>
+        <v>0.3494510650634765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2058775573968887</v>
+        <v>0.4231728911399841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2058775871992111</v>
+        <v>0.397327572107315</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0757009014487266</v>
+        <v>0.2870205044746399</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0757008865475654</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>0.228919580578804</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4553322792053222</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1060101</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1070116</v>
       </c>
       <c r="B15" t="n">
-        <v>0.344353437423706</v>
+        <v>0.1506159156560897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2084787189960479</v>
+        <v>0.1718883514404297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2084787487983703</v>
+        <v>0.1718884110450744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1034245491027832</v>
+        <v>0.1649615615606308</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1034245491027832</v>
+        <v>0.164961576461792</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1060104</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1080101</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3368638157844543</v>
+        <v>0.194060206413269</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1138299033045768</v>
+        <v>0.3359826505184173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113829918205738</v>
+        <v>0.2260748594999313</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09353338927030561</v>
+        <v>0.2158646583557129</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0935334041714668</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0.1614414602518081</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4667388200759887</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1060105</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1080102</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1503945738077163</v>
+        <v>0.1992267668247223</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2863854467868805</v>
+        <v>0.3807372450828552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2863854169845581</v>
+        <v>0.3576571941375732</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07741311192512509</v>
+        <v>0.198975995182991</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07741311192512509</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.1708609759807586</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4816898107528686</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1060106a</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1080103</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0999119877815246</v>
+        <v>0.308750569820404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2134618610143661</v>
+        <v>0.360384076833725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2134618759155273</v>
+        <v>0.3031627833843231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0412668325006961</v>
+        <v>0.1908100247383117</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0412668362259864</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.1913839280605316</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5505945682525635</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1060106b</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1080104</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2682797312736511</v>
+        <v>0.1456925421953201</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1507689952850341</v>
+        <v>0.3618646562099457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1507689952850341</v>
+        <v>0.2616115808486938</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1071599200367927</v>
+        <v>0.1552866846323013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1071599423885345</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0.156279370188713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5094664692878723</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1070101</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1080105</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2228322774171829</v>
+        <v>0.3667409420013428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2870592772960663</v>
+        <v>0.3248916864395141</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3458832502365112</v>
+        <v>0.2796944081783294</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1342481523752212</v>
+        <v>0.2244016826152801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249169930815696</v>
+        <v>0.1553020626306533</v>
       </c>
       <c r="G20" t="n">
-        <v>0.441411405801773</v>
+        <v>0.5307896733283997</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1070102</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1080106</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2897847890853882</v>
+        <v>0.2604225575923919</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4012357592582702</v>
+        <v>0.3570400476455688</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2755033671855926</v>
+        <v>0.3126143217086792</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1464267075061798</v>
+        <v>0.2145020067691803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1289703696966171</v>
+        <v>0.1884055137634277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4075840711593628</v>
+        <v>0.5359379053115845</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1070103</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1080107</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2318808436393737</v>
+        <v>0.229715958237648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4278328418731689</v>
+        <v>0.3387807011604309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2346070110797882</v>
+        <v>0.3668328821659088</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2300222218036651</v>
+        <v>0.1756814271211624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1770586222410202</v>
+        <v>0.1827710270881652</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5215611457824707</v>
+        <v>0.4410994350910187</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1070105</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1080108</v>
       </c>
       <c r="B23" t="n">
-        <v>0.185781717300415</v>
+        <v>0.2555578052997589</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4481227993965149</v>
+        <v>0.343950092792511</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2925772070884704</v>
+        <v>0.3924345076084137</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2049071639776229</v>
+        <v>0.2405694723129272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1616399884223938</v>
+        <v>0.2341922968626022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4935652911663055</v>
+        <v>0.4327962398529053</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1070106</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1080109</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3705377280712127</v>
+        <v>0.1667619198560714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4656500816345215</v>
+        <v>0.3404583632946014</v>
       </c>
       <c r="D24" t="n">
-        <v>0.552446722984314</v>
+        <v>0.2510325014591217</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2813068628311157</v>
+        <v>0.1918802708387375</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3283441364765167</v>
+        <v>0.1530423164367675</v>
       </c>
       <c r="G24" t="n">
-        <v>0.492121160030365</v>
+        <v>0.5884273052215576</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1070107</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1080110</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2135114073753357</v>
+        <v>0.2585403621196747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4472656846046448</v>
+        <v>0.3758881688117981</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3582558035850525</v>
+        <v>0.2912096977233886</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1571032404899597</v>
+        <v>0.1924934536218643</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1278544068336486</v>
+        <v>0.1436786502599716</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4251018166542053</v>
+        <v>0.6614190340042114</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1070109</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1080111</v>
       </c>
       <c r="B26" t="n">
-        <v>0.228298008441925</v>
+        <v>0.2965269684791565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4393918216228485</v>
+        <v>0.4542932510375976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4358815252780914</v>
+        <v>0.361757218837738</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2817708849906921</v>
+        <v>0.2546983063220978</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2388323694467544</v>
+        <v>0.1694431751966476</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3627061247825622</v>
+        <v>0.5033392906188965</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1070110</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1080112</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2466276288032531</v>
+        <v>0.3281595110893249</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3121280372142792</v>
+        <v>0.355237603187561</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2645584344863891</v>
+        <v>0.3280307054519653</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2011014521121978</v>
+        <v>0.2381473779678344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1916423141956329</v>
+        <v>0.2235404849052429</v>
       </c>
       <c r="G27" t="n">
-        <v>0.574285626411438</v>
+        <v>0.5268211364746094</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1070111</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1080113</v>
       </c>
       <c r="B28" t="n">
-        <v>0.184064969420433</v>
+        <v>0.3309014737606048</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3422467112541199</v>
+        <v>0.4093732237815857</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3634011149406433</v>
+        <v>0.442661851644516</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1949169635772705</v>
+        <v>0.2400240153074264</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1852503269910812</v>
+        <v>0.2276950925588607</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6180146932601929</v>
+        <v>0.4110928773880005</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1070112</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1080114</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1703273057937622</v>
+        <v>0.3278017342090606</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2120788395404815</v>
+        <v>0.430092453956604</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2630921304225921</v>
+        <v>0.2841506004333496</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1886345148086547</v>
+        <v>0.1986903846263885</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1857380270957946</v>
+        <v>0.1620817631483078</v>
       </c>
       <c r="G29" t="n">
-        <v>0.71628737449646</v>
+        <v>0.5050286054611206</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1070113</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1080201</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3445868492126465</v>
+        <v>0.412452220916748</v>
       </c>
       <c r="C30" t="n">
-        <v>0.443207323551178</v>
+        <v>0.3485205769538879</v>
       </c>
       <c r="D30" t="n">
-        <v>0.286968320608139</v>
+        <v>0.2925464510917663</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2355665266513824</v>
+        <v>0.1713883727788925</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2156470417976379</v>
+        <v>0.1475486606359481</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4042046070098877</v>
+        <v>0.5301594138145447</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1070114</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1080202</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2298395037651062</v>
+        <v>0.1922988891601562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4019764065742492</v>
+        <v>0.252141922712326</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3997060358524322</v>
+        <v>0.2591197788715362</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2965547442436218</v>
+        <v>0.2401299476623535</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2207383811473846</v>
+        <v>0.2183859348297119</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3891574144363403</v>
+        <v>0.5173054933547974</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1070115</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1080203</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3494510650634765</v>
+        <v>0.5322831273078918</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4231728911399841</v>
+        <v>0.2279166579246521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.397327572107315</v>
+        <v>0.1975636482238769</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2870205044746399</v>
+        <v>0.187141016125679</v>
       </c>
       <c r="F32" t="n">
-        <v>0.228919580578804</v>
+        <v>0.162059336900711</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4553322792053222</v>
+        <v>0.6431106328964233</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1070116</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1080301</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1506159156560897</v>
+        <v>0.2152874320745468</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1718883514404297</v>
+        <v>0.4074657261371612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1718884110450744</v>
+        <v>0.2537363469600677</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1649615615606308</v>
+        <v>0.1376865804195404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.164961576461792</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>0.1623136103153228</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6070531606674194</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1080101</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1080302</v>
       </c>
       <c r="B34" t="n">
-        <v>0.194060206413269</v>
+        <v>0.295706033706665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3359826505184173</v>
+        <v>0.4158793985843658</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2260748594999313</v>
+        <v>0.4652290344238281</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2158646583557129</v>
+        <v>0.2144204974174499</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1614414602518081</v>
+        <v>0.2444480061531067</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4667388200759887</v>
+        <v>0.5472414493560791</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1080102</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1080303</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1992267668247223</v>
+        <v>0.4046418368816376</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3807372450828552</v>
+        <v>0.4486047029495239</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3576571941375732</v>
+        <v>0.3802606761455536</v>
       </c>
       <c r="E35" t="n">
-        <v>0.198975995182991</v>
+        <v>0.2749679386615753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1708609759807586</v>
+        <v>0.2254586219787597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4816898107528686</v>
+        <v>0.5405603051185608</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1080103</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1080304</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308750569820404</v>
+        <v>0.2731514871120453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.360384076833725</v>
+        <v>0.3252823650836944</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3031627833843231</v>
+        <v>0.2940558791160583</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1908100247383117</v>
+        <v>0.202787846326828</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1913839280605316</v>
+        <v>0.1708346605300903</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5505945682525635</v>
+        <v>0.5641080141067505</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1080104</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1080305</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1456925421953201</v>
+        <v>0.3607902824878692</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3618646562099457</v>
+        <v>0.3633818924427032</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2616115808486938</v>
+        <v>0.3089278638362884</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1552866846323013</v>
+        <v>0.1999336034059524</v>
       </c>
       <c r="F37" t="n">
-        <v>0.156279370188713</v>
+        <v>0.1742898523807525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5094664692878723</v>
+        <v>0.7366275191307068</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1080105</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1080306</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3667409420013428</v>
+        <v>0.344817966222763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3248916864395141</v>
+        <v>0.4525083899497986</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2796944081783294</v>
+        <v>0.4355162382125854</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2244016826152801</v>
+        <v>0.2114364504814148</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1553020626306533</v>
+        <v>0.2069095820188522</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5307896733283997</v>
+        <v>0.5813511610031128</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1080106</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1080307</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2604225575923919</v>
+        <v>0.3277865052223205</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3570400476455688</v>
+        <v>0.3536898791790008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3126143217086792</v>
+        <v>0.2969664335250854</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2145020067691803</v>
+        <v>0.2693367600440979</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1884055137634277</v>
+        <v>0.2099614739418029</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5359379053115845</v>
+        <v>0.5047960877418518</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1080107</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1080308</v>
       </c>
       <c r="B40" t="n">
-        <v>0.229715958237648</v>
+        <v>0.08104723691940301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3387807011604309</v>
+        <v>0.2979218959808349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3668328821659088</v>
+        <v>0.2704396843910217</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1756814271211624</v>
+        <v>0.0783037841320037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1827710270881652</v>
+        <v>0.08235627412796021</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4410994350910187</v>
+        <v>0.6899091005325317</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1080108</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1080401</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2555578052997589</v>
+        <v>0.1713291406631469</v>
       </c>
       <c r="C41" t="n">
-        <v>0.343950092792511</v>
+        <v>0.341544896364212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3924345076084137</v>
+        <v>0.2500613927841186</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2405694723129272</v>
+        <v>0.1500954777002334</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2341922968626022</v>
+        <v>0.1197522208094596</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4327962398529053</v>
+        <v>0.6082426309585571</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1080109</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>1080402</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1667619198560714</v>
+        <v>0.2705885469913482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3404583632946014</v>
+        <v>0.3312349915504455</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2510325014591217</v>
+        <v>0.3054096698760986</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1918802708387375</v>
+        <v>0.0643046647310257</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1530423164367675</v>
+        <v>0.0685971081256866</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5884273052215576</v>
+        <v>0.6591035127639771</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1080110</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>1080403</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2585403621196747</v>
+        <v>0.1630770564079284</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3758881688117981</v>
+        <v>0.4117810726165771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2912096977233886</v>
+        <v>0.3935649693012237</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1924934536218643</v>
+        <v>0.185972660779953</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1436786502599716</v>
+        <v>0.1628445088863372</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6614190340042114</v>
+        <v>0.6496348977088928</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1080111</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>1080404</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2965269684791565</v>
+        <v>0.21306873857975</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4542932510375976</v>
+        <v>0.3908668160438537</v>
       </c>
       <c r="D44" t="n">
-        <v>0.361757218837738</v>
+        <v>0.4013845920562744</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2546983063220978</v>
+        <v>0.129294291138649</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1694431751966476</v>
+        <v>0.1575788706541061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5033392906188965</v>
+        <v>0.5066721439361572</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1080112</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>1080405</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3281595110893249</v>
+        <v>0.2603999376296997</v>
       </c>
       <c r="C45" t="n">
-        <v>0.355237603187561</v>
+        <v>0.4438053667545318</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3280307054519653</v>
+        <v>0.2658971846103668</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2381473779678344</v>
+        <v>0.1656959652900695</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2235404849052429</v>
+        <v>0.0525934547185897</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5268211364746094</v>
+        <v>0.6196324825286865</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1080113</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>1080406</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3309014737606048</v>
+        <v>0.2152307480573654</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4093732237815857</v>
+        <v>0.3094569444656372</v>
       </c>
       <c r="D46" t="n">
-        <v>0.442661851644516</v>
+        <v>0.3873867988586426</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2400240153074264</v>
+        <v>0.1062014698982238</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2276950925588607</v>
+        <v>0.1439446657896042</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4110928773880005</v>
+        <v>0.7001060843467712</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1080114</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>1080407</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3278017342090606</v>
+        <v>0.2454042732715606</v>
       </c>
       <c r="C47" t="n">
-        <v>0.430092453956604</v>
+        <v>0.379996657371521</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2841506004333496</v>
+        <v>0.3519714772701263</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1986903846263885</v>
+        <v>0.1256811767816543</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1620817631483078</v>
+        <v>0.1172531321644783</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5050286054611206</v>
+        <v>0.6763101816177368</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1080201</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>1080408</v>
       </c>
       <c r="B48" t="n">
-        <v>0.412452220916748</v>
+        <v>0.2779255211353302</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3485205769538879</v>
+        <v>0.3432170450687408</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2925464510917663</v>
+        <v>0.3162547349929809</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1713883727788925</v>
+        <v>0.1701240837574005</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1475486606359481</v>
+        <v>0.1135709285736084</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5301594138145447</v>
+        <v>0.5204718112945557</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1080202</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>1080409</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1922988891601562</v>
+        <v>0.2527110576629638</v>
       </c>
       <c r="C49" t="n">
-        <v>0.252141922712326</v>
+        <v>0.3066858649253845</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2591197788715362</v>
+        <v>0.2031511217355728</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2401299476623535</v>
+        <v>0.1343059986829757</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2183859348297119</v>
+        <v>0.1128730922937393</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5173054933547974</v>
+        <v>0.7298662662506104</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1080203</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>1080410</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5322831273078918</v>
+        <v>0.1748425364494323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2279166579246521</v>
+        <v>0.4640111625194549</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1975636482238769</v>
+        <v>0.3634954392910003</v>
       </c>
       <c r="E50" t="n">
-        <v>0.187141016125679</v>
+        <v>0.1754352003335952</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162059336900711</v>
+        <v>0.172787457704544</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6431106328964233</v>
+        <v>0.3132261037826538</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1080301</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>1080411</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2152874320745468</v>
+        <v>0.2135527282953262</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4074657261371612</v>
+        <v>0.2645017504692077</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2537363469600677</v>
+        <v>0.2896857559680938</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1376865804195404</v>
+        <v>0.9078522920608521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1623136103153228</v>
+        <v>0.7976090908050537</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6070531606674194</v>
+        <v>0.7424099445343018</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1080302</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>1080412</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295706033706665</v>
+        <v>0.3094941675662994</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4158793985843658</v>
+        <v>0.2786308526992798</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4652290344238281</v>
+        <v>0.3265793323516845</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2144204974174499</v>
+        <v>0.1520262211561203</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2444480061531067</v>
+        <v>0.1792319416999817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5472414493560791</v>
+        <v>0.6166585683822632</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1080303</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>1080413</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4046418368816376</v>
+        <v>0.1657174378633499</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4486047029495239</v>
+        <v>0.3243530392646789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3802606761455536</v>
+        <v>0.2701791822910309</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2749679386615753</v>
+        <v>0.12863290309906</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2254586219787597</v>
+        <v>0.123578205704689</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5405603051185608</v>
+        <v>0.5373131036758423</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1080304</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>1080414</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2731514871120453</v>
+        <v>0.1983532458543777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3252823650836944</v>
+        <v>0.3209128081798553</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2940558791160583</v>
+        <v>0.2408910393714904</v>
       </c>
       <c r="E54" t="n">
-        <v>0.202787846326828</v>
+        <v>0.1409958600997924</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1708346605300903</v>
+        <v>0.1234862506389617</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5641080141067505</v>
+        <v>0.6419703364372253</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1080305</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>1080415</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3607902824878692</v>
+        <v>0.2822034060955047</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3633818924427032</v>
+        <v>0.3148138225078583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3089278638362884</v>
+        <v>0.3908345699310303</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1999336034059524</v>
+        <v>0.1250574290752411</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1742898523807525</v>
+        <v>0.1541008055210113</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7366275191307068</v>
+        <v>0.4845662713050842</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1080306</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>1080416</v>
       </c>
       <c r="B56" t="n">
-        <v>0.344817966222763</v>
+        <v>0.2101143300533294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4525083899497986</v>
+        <v>0.3444481790065765</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4355162382125854</v>
+        <v>0.2365807890892028</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2114364504814148</v>
+        <v>0.091757982969284</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2069095820188522</v>
+        <v>0.088615745306015</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5813511610031128</v>
+        <v>0.6508108973503113</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1080307</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>1080417</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3277865052223205</v>
+        <v>0.2511802911758423</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3536898791790008</v>
+        <v>0.4014104008674621</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2969664335250854</v>
+        <v>0.4024348556995392</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2693367600440979</v>
+        <v>0.1681556552648544</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2099614739418029</v>
+        <v>0.1263960748910904</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5047960877418518</v>
+        <v>0.5024440884590149</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1080308</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>1080418</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08104723691940301</v>
+        <v>0.2396413385868072</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2979218959808349</v>
+        <v>0.3189513683319092</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2704396843910217</v>
+        <v>0.2508832812309265</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0783037841320037</v>
+        <v>0.1134790182113647</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08235627412796021</v>
+        <v>0.1100479364395141</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6899091005325317</v>
+        <v>0.5078580975532532</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1080401</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>1080419</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1713291406631469</v>
+        <v>0.232436329126358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.341544896364212</v>
+        <v>0.3689179718494415</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2500613927841186</v>
+        <v>0.3346083164215088</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1500954777002334</v>
+        <v>0.1794819086790084</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1197522208094596</v>
+        <v>0.1466146111488342</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6082426309585571</v>
+        <v>0.4856942892074585</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1080402</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>1080420</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2705885469913482</v>
+        <v>0.09909762442111961</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3312349915504455</v>
+        <v>0.3020576238632202</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3054096698760986</v>
+        <v>0.2889850735664367</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0643046647310257</v>
+        <v>0.1203797757625579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0685971081256866</v>
+        <v>0.1254715770483017</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6591035127639771</v>
+        <v>0.5688128471374512</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1080403</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>1080421</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1630770564079284</v>
+        <v>0.1142205223441124</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4117810726165771</v>
+        <v>0.2276787459850311</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3935649693012237</v>
+        <v>0.2276787012815475</v>
       </c>
       <c r="E61" t="n">
-        <v>0.185972660779953</v>
+        <v>0.0832503661513328</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1628445088863372</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.6496348977088928</v>
-      </c>
+        <v>0.0832503736019134</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1080404</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>1080422</v>
       </c>
       <c r="B62" t="n">
-        <v>0.21306873857975</v>
+        <v>0.3593384921550751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3908668160438537</v>
+        <v>0.3095673322677612</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4013845920562744</v>
+        <v>0.336588054895401</v>
       </c>
       <c r="E62" t="n">
-        <v>0.129294291138649</v>
+        <v>0.1376337260007858</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1575788706541061</v>
+        <v>0.1894921511411667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5066721439361572</v>
+        <v>0.6130160689353943</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1080405</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>1080423</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2603999376296997</v>
+        <v>0.1342661678791046</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4438053667545318</v>
+        <v>0.1856634616851806</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2658971846103668</v>
+        <v>0.1856634616851806</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1656959652900695</v>
+        <v>0.07786589860916129</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0525934547185897</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.6196324825286865</v>
-      </c>
+        <v>0.0778658911585807</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1080406</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>1090101</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2152307480573654</v>
+        <v>0.1896179616451263</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3094569444656372</v>
+        <v>0.3108970820903778</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3873867988586426</v>
+        <v>0.2955411672592163</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1062014698982238</v>
+        <v>0.1026083976030349</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1439446657896042</v>
+        <v>0.1118490174412727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7001060843467712</v>
+        <v>0.6057255864143372</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1080407</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>1090102</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2454042732715606</v>
+        <v>0.2215087115764618</v>
       </c>
       <c r="C65" t="n">
-        <v>0.379996657371521</v>
+        <v>0.2530695497989654</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3519714772701263</v>
+        <v>0.2434540838003158</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1256811767816543</v>
+        <v>0.0949320495128631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1172531321644783</v>
+        <v>0.0895552933216095</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6763101816177368</v>
+        <v>0.6971292495727539</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1080408</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>1090103</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2779255211353302</v>
+        <v>0.1346610784530639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3432170450687408</v>
+        <v>0.3368918299674988</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3162547349929809</v>
+        <v>0.4021807610988617</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1701240837574005</v>
+        <v>0.051675658673048</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1135709285736084</v>
+        <v>0.0736747309565544</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5204718112945557</v>
+        <v>0.4665791094303131</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1080409</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>1090104</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2527110576629638</v>
+        <v>0.2408918589353561</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3066858649253845</v>
+        <v>0.3606453537940979</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2031511217355728</v>
+        <v>0.3069052100181579</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1343059986829757</v>
+        <v>0.1216037422418594</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1128730922937393</v>
+        <v>0.111601673066616</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7298662662506104</v>
+        <v>0.5858432054519653</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1080410</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>1090105</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1748425364494323</v>
+        <v>0.0907504186034202</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4640111625194549</v>
+        <v>0.2959937155246734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3634954392910003</v>
+        <v>0.2833689153194427</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1754352003335952</v>
+        <v>0.053958922624588</v>
       </c>
       <c r="F68" t="n">
-        <v>0.172787457704544</v>
+        <v>0.0893786549568176</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3132261037826538</v>
+        <v>0.5685460567474365</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1080411</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>1090106</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2135527282953262</v>
+        <v>0.1342799663543701</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2645017504692077</v>
+        <v>0.297093391418457</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2896857559680938</v>
+        <v>0.2438507378101349</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9078522920608521</v>
+        <v>0.1293936371803283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7976090908050537</v>
+        <v>0.102330558001995</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7424099445343018</v>
+        <v>0.6107555031776428</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1080412</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>1090107</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3094941675662994</v>
+        <v>0.2130077332258224</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2786308526992798</v>
+        <v>0.3566047251224518</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3265793323516845</v>
+        <v>0.3044229745864868</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1520262211561203</v>
+        <v>0.1467750966548919</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1792319416999817</v>
+        <v>0.0947782918810844</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6166585683822632</v>
+        <v>0.5809305310249329</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1080413</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>1090109</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1657174378633499</v>
+        <v>0.2214688658714294</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3243530392646789</v>
+        <v>0.3202149569988251</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2701791822910309</v>
+        <v>0.2898909449577331</v>
       </c>
       <c r="E71" t="n">
-        <v>0.12863290309906</v>
+        <v>0.0896116197109222</v>
       </c>
       <c r="F71" t="n">
-        <v>0.123578205704689</v>
+        <v>0.1002201959490776</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5373131036758423</v>
+        <v>0.6448619365692139</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1080414</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>1090110</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1983532458543777</v>
+        <v>0.1076971441507339</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3209128081798553</v>
+        <v>0.312008261680603</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2408910393714904</v>
+        <v>0.3819615244865417</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1409958600997924</v>
+        <v>0.081274501979351</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1234862506389617</v>
+        <v>0.0947521030902862</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6419703364372253</v>
+        <v>0.61651211977005</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>1080415</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>1090111</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2822034060955047</v>
+        <v>0.1975814998149871</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3148138225078583</v>
+        <v>0.327377051115036</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3908345699310303</v>
+        <v>0.1957840174436569</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1250574290752411</v>
+        <v>0.1031901612877845</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1541008055210113</v>
+        <v>0.0929870381951332</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4845662713050842</v>
+        <v>0.5461395978927612</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1080416</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>1090112</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2101143300533294</v>
+        <v>0.2800603806972503</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3444481790065765</v>
+        <v>0.3561223149299621</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2365807890892028</v>
+        <v>0.2607921361923218</v>
       </c>
       <c r="E74" t="n">
-        <v>0.091757982969284</v>
+        <v>0.1620063185691833</v>
       </c>
       <c r="F74" t="n">
-        <v>0.088615745306015</v>
+        <v>0.1077525317668914</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6508108973503113</v>
+        <v>0.5150784850120544</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1080417</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>1090113</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2511802911758423</v>
+        <v>0.2277215123176574</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4014104008674621</v>
+        <v>0.3684723079204559</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4024348556995392</v>
+        <v>0.2607471346855163</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1681556552648544</v>
+        <v>0.1408447325229644</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1263960748910904</v>
+        <v>0.0833043009042739</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5024440884590149</v>
+        <v>0.6113488674163818</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1080418</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>1090114</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2396413385868072</v>
+        <v>0.3235043883323669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3189513683319092</v>
+        <v>0.2548486292362213</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2508832812309265</v>
+        <v>0.2830616533756256</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1134790182113647</v>
+        <v>0.1732984036207199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1100479364395141</v>
+        <v>0.157094806432724</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5078580975532532</v>
+        <v>0.66316819190979</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1080419</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>1090115</v>
       </c>
       <c r="B77" t="n">
-        <v>0.232436329126358</v>
+        <v>0.3794029355049133</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3689179718494415</v>
+        <v>0.2698488235473633</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3346083164215088</v>
+        <v>0.1705021262168884</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1794819086790084</v>
+        <v>0.173899695277214</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1466146111488342</v>
+        <v>0.138329342007637</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4856942892074585</v>
+        <v>0.654450535774231</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1080420</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>1100101</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09909762442111961</v>
+        <v>0.24505016207695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3020576238632202</v>
+        <v>0.3208641707897186</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2889850735664367</v>
+        <v>0.2831107974052429</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1203797757625579</v>
+        <v>0.1405121088027954</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1254715770483017</v>
+        <v>0.0798342749476432</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5688128471374512</v>
+        <v>0.6420444250106812</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1080421</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>1100102</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1142205223441124</v>
+        <v>0.3522960543632507</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2276787459850311</v>
+        <v>0.3070264160633087</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2276787012815475</v>
+        <v>0.2953812479972839</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0832503661513328</v>
+        <v>0.1861242949962616</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0832503736019134</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>0.2091137617826461</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.5806028842926025</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>1080422</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>1100103</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3593384921550751</v>
+        <v>0.2826908528804779</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3095673322677612</v>
+        <v>0.3552049100399017</v>
       </c>
       <c r="D80" t="n">
-        <v>0.336588054895401</v>
+        <v>0.2581246793270111</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1376337260007858</v>
+        <v>0.1473284512758255</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1894921511411667</v>
+        <v>0.0925721079111099</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6130160689353943</v>
+        <v>0.5665610432624817</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>1080423</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>1100104</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1342661678791046</v>
+        <v>0.1663804054260254</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1856634616851806</v>
+        <v>0.2630250453948974</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1856634616851806</v>
+        <v>0.2738482058048248</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07786589860916129</v>
+        <v>0.0779111012816429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0778658911585807</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>0.0888382568955421</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6174196004867554</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1090101</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>1100105</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1896179616451263</v>
+        <v>0.1366317123174667</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3108970820903778</v>
+        <v>0.2993421554565429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2955411672592163</v>
+        <v>0.3756232261657715</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1026083976030349</v>
+        <v>0.0640455707907676</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1118490174412727</v>
+        <v>0.06615635007619849</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6057255864143372</v>
+        <v>0.6846853494644165</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1090102</t>
-        </is>
+      <c r="A83" s="1" t="n">
+        <v>1100106</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2215087115764618</v>
+        <v>0.2545537948608398</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2530695497989654</v>
+        <v>0.3177118003368377</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2434540838003158</v>
+        <v>0.298452764749527</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0949320495128631</v>
+        <v>0.0649770125746727</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0895552933216095</v>
+        <v>0.0810742080211639</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6971292495727539</v>
+        <v>0.6583117246627808</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1090103</t>
-        </is>
+      <c r="A84" s="1" t="n">
+        <v>1100107</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1346610784530639</v>
+        <v>0.1837472319602966</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3368918299674988</v>
+        <v>0.3178127408027649</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4021807610988617</v>
+        <v>0.2273357510566711</v>
       </c>
       <c r="E84" t="n">
-        <v>0.051675658673048</v>
+        <v>0.0378721505403518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0736747309565544</v>
+        <v>0.0510945469141006</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4665791094303131</v>
+        <v>0.7039918899536133</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1090104</t>
-        </is>
+      <c r="A85" s="1" t="n">
+        <v>1100108</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2408918589353561</v>
+        <v>0.2345818728208542</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3606453537940979</v>
+        <v>0.3370085656642914</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3069052100181579</v>
+        <v>0.2848511040210724</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1216037422418594</v>
+        <v>0.1542433947324752</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111601673066616</v>
+        <v>0.1201205775141716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5858432054519653</v>
+        <v>0.6519567966461182</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>1090105</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>1100109</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0907504186034202</v>
+        <v>0.3376033008098602</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2959937155246734</v>
+        <v>0.3580460548400879</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2833689153194427</v>
+        <v>0.3278885185718536</v>
       </c>
       <c r="E86" t="n">
-        <v>0.053958922624588</v>
+        <v>0.1575867235660553</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0893786549568176</v>
+        <v>0.1341726183891296</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5685460567474365</v>
+        <v>0.6155827641487122</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1090106</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>1100110</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1342799663543701</v>
+        <v>0.2713497281074524</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297093391418457</v>
+        <v>0.2747289836406708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2438507378101349</v>
+        <v>0.2662500143051147</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1293936371803283</v>
+        <v>0.1208710968494415</v>
       </c>
       <c r="F87" t="n">
-        <v>0.102330558001995</v>
+        <v>0.1308034807443618</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6107555031776428</v>
+        <v>0.6011989116668701</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>1090107</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>1100111</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2130077332258224</v>
+        <v>0.190115749835968</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3566047251224518</v>
+        <v>0.2617234587669372</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3044229745864868</v>
+        <v>0.2201054394245147</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1467750966548919</v>
+        <v>0.08164325356483459</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0947782918810844</v>
+        <v>0.1108998507261276</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5809305310249329</v>
+        <v>0.5836477279663086</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>1090109</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>1100112</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2214688658714294</v>
+        <v>0.1994877159595489</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3202149569988251</v>
+        <v>0.3184184432029724</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2898909449577331</v>
+        <v>0.2623813450336456</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0896116197109222</v>
+        <v>0.082027792930603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002201959490776</v>
+        <v>0.0703243762254715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6448619365692139</v>
+        <v>0.7401469349861145</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>1090110</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>1100114</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1076971441507339</v>
+        <v>0.3595074415206909</v>
       </c>
       <c r="C90" t="n">
-        <v>0.312008261680603</v>
+        <v>0.2843212485313415</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3819615244865417</v>
+        <v>0.158680260181427</v>
       </c>
       <c r="E90" t="n">
-        <v>0.081274501979351</v>
+        <v>0.135554552078247</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0947521030902862</v>
+        <v>0.07014819979667659</v>
       </c>
       <c r="G90" t="n">
-        <v>0.61651211977005</v>
+        <v>0.675976574420929</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>1090111</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>1100115</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1975814998149871</v>
+        <v>0.214102029800415</v>
       </c>
       <c r="C91" t="n">
-        <v>0.327377051115036</v>
+        <v>0.3088953495025635</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1957840174436569</v>
+        <v>0.3204447627067566</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1031901612877845</v>
+        <v>0.742218017578125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0929870381951332</v>
+        <v>0.7009953260421753</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5461395978927612</v>
+        <v>0.5662626624107361</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>1090112</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>1100116</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2800603806972503</v>
+        <v>0.3507956564426422</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3561223149299621</v>
+        <v>0.2360652536153793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2607921361923218</v>
+        <v>0.2723930776119232</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1620063185691833</v>
+        <v>0.154218316078186</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1077525317668914</v>
+        <v>0.1748428642749786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5150784850120544</v>
+        <v>0.8971859812736511</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>1090113</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>1100117</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2277215123176574</v>
+        <v>0.3047442734241485</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3684723079204559</v>
+        <v>0.2788276374340057</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2607471346855163</v>
+        <v>0.2357330918312072</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1408447325229644</v>
+        <v>0.1466235816478729</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0833043009042739</v>
+        <v>0.1197350025177002</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6113488674163818</v>
+        <v>0.6538519263267517</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>1090114</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>1100118</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3235043883323669</v>
+        <v>0.300489604473114</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2548486292362213</v>
+        <v>0.2773919999599457</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2830616533756256</v>
+        <v>0.2418353259563446</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1732984036207199</v>
+        <v>0.1971767395734787</v>
       </c>
       <c r="F94" t="n">
-        <v>0.157094806432724</v>
+        <v>0.0987095311284065</v>
       </c>
       <c r="G94" t="n">
-        <v>0.66316819190979</v>
+        <v>0.6903861165046692</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>1090115</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>1100119</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3794029355049133</v>
+        <v>0.3791933059692383</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2698488235473633</v>
+        <v>0.3305398523807525</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1705021262168884</v>
+        <v>0.3235772848129272</v>
       </c>
       <c r="E95" t="n">
-        <v>0.173899695277214</v>
+        <v>0.1926808059215545</v>
       </c>
       <c r="F95" t="n">
-        <v>0.138329342007637</v>
+        <v>0.1912563443183899</v>
       </c>
       <c r="G95" t="n">
-        <v>0.654450535774231</v>
+        <v>0.6407291889190674</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>1100101</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>1110201</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24505016207695</v>
+        <v>0.1939883977174759</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3208641707897186</v>
+        <v>0.241338238120079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2831107974052429</v>
+        <v>0.4617919921875</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1405121088027954</v>
+        <v>0.1194368749856948</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0798342749476432</v>
+        <v>0.200624793767929</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6420444250106812</v>
+        <v>0.2850459516048431</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>1100102</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>1110202</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3522960543632507</v>
+        <v>0.2904975414276123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3070264160633087</v>
+        <v>0.4072347283363342</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2953812479972839</v>
+        <v>0.5075182914733887</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1861242949962616</v>
+        <v>0.1470857560634613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2091137617826461</v>
+        <v>0.1969732642173767</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5806028842926025</v>
+        <v>0.4222895205020904</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>1100103</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>1110203</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2826908528804779</v>
+        <v>0.3764569163322449</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3552049100399017</v>
+        <v>0.4642911553382873</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2581246793270111</v>
+        <v>0.3260000050067901</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1473284512758255</v>
+        <v>0.2227179557085037</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0925721079111099</v>
+        <v>0.179417535662651</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5665610432624817</v>
+        <v>0.5548207759857178</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>1100104</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>1110204</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1663804054260254</v>
+        <v>0.3727547526359558</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2630250453948974</v>
+        <v>0.488939493894577</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2738482058048248</v>
+        <v>0.396791011095047</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0779111012816429</v>
+        <v>0.1973492354154586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0888382568955421</v>
+        <v>0.1380330175161361</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6174196004867554</v>
+        <v>0.460293561220169</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>1100105</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>1110205</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1366317123174667</v>
+        <v>0.2022817730903625</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2993421554565429</v>
+        <v>0.2752182781696319</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3756232261657715</v>
+        <v>0.4573078751564026</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0640455707907676</v>
+        <v>0.0855888575315475</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06615635007619849</v>
+        <v>0.08815686404705041</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6846853494644165</v>
+        <v>0.3913977742195129</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>1100106</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>1110206</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2545537948608398</v>
+        <v>0.298050582408905</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3177118003368377</v>
+        <v>0.2587429881095886</v>
       </c>
       <c r="D101" t="n">
-        <v>0.298452764749527</v>
+        <v>0.2394149601459503</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0649770125746727</v>
+        <v>0.0928512513637542</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0810742080211639</v>
+        <v>0.0917741879820823</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6583117246627808</v>
+        <v>0.8140276074409485</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>1100107</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>1110207</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1837472319602966</v>
+        <v>0.3453073799610138</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3178127408027649</v>
+        <v>0.5759589672088623</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2273357510566711</v>
+        <v>0.3381323516368866</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0378721505403518</v>
+        <v>0.3038070499897003</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0510945469141006</v>
+        <v>0.1398793458938598</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7039918899536133</v>
+        <v>0.3737402558326721</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>1100108</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>1110208</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2345818728208542</v>
+        <v>0.5032914280891418</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3370085656642914</v>
+        <v>0.4892200231552124</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2848511040210724</v>
+        <v>0.3403715789318084</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1542433947324752</v>
+        <v>0.2715683579444885</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1201205775141716</v>
+        <v>0.1735469102859497</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6519567966461182</v>
+        <v>0.5468867421150208</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>1100109</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>1110209</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3376033008098602</v>
+        <v>0.3628386259078979</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3580460548400879</v>
+        <v>0.3946065306663513</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3278885185718536</v>
+        <v>0.5270618796348572</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1575867235660553</v>
+        <v>0.1594214886426925</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1341726183891296</v>
+        <v>0.1899237334728241</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6155827641487122</v>
+        <v>0.468503475189209</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1100110</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>1110210</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2713497281074524</v>
+        <v>0.2620333135128021</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2747289836406708</v>
+        <v>0.4164010286331177</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2662500143051147</v>
+        <v>0.3783222436904907</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1208710968494415</v>
+        <v>0.1328438222408294</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1308034807443618</v>
+        <v>0.1378155201673507</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6011989116668701</v>
+        <v>0.5238243341445923</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>1100111</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>1110211</v>
       </c>
       <c r="B106" t="n">
-        <v>0.190115749835968</v>
+        <v>0.4094984531402588</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2617234587669372</v>
+        <v>0.436108648777008</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2201054394245147</v>
+        <v>0.3703434765338897</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08164325356483459</v>
+        <v>0.2611443996429443</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1108998507261276</v>
+        <v>0.2200586497783661</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5836477279663086</v>
+        <v>0.4361200928688049</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>1100112</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>1110212</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1994877159595489</v>
+        <v>0.3168917298316955</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3184184432029724</v>
+        <v>0.486856997013092</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2623813450336456</v>
+        <v>0.3797084093093872</v>
       </c>
       <c r="E107" t="n">
-        <v>0.082027792930603</v>
+        <v>0.2685772180557251</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0703243762254715</v>
+        <v>0.1715382039546966</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7401469349861145</v>
+        <v>0.4730452299118042</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>1100114</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>1110213</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3595074415206909</v>
+        <v>0.4067338109016418</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2843212485313415</v>
+        <v>0.366617202758789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.158680260181427</v>
+        <v>0.3094078302383423</v>
       </c>
       <c r="E108" t="n">
-        <v>0.135554552078247</v>
+        <v>0.2819789052009582</v>
       </c>
       <c r="F108" t="n">
-        <v>0.07014819979667659</v>
+        <v>0.2394726276397705</v>
       </c>
       <c r="G108" t="n">
-        <v>0.675976574420929</v>
+        <v>0.6204038262367249</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>1100115</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>1110214</v>
       </c>
       <c r="B109" t="n">
-        <v>0.214102029800415</v>
+        <v>0.3950210511684418</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3088953495025635</v>
+        <v>0.1802632808685302</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3204447627067566</v>
+        <v>0.2982400059700012</v>
       </c>
       <c r="E109" t="n">
-        <v>0.742218017578125</v>
+        <v>0.1427488178014755</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7009953260421753</v>
+        <v>0.1764565259218216</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5662626624107361</v>
+        <v>0.6119629740715027</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>1100116</t>
-        </is>
+      <c r="A110" s="1" t="n">
+        <v>1110215</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3507956564426422</v>
+        <v>0.4487047791481018</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2360652536153793</v>
+        <v>0.3778133988380432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2723930776119232</v>
+        <v>0.2678539454936981</v>
       </c>
       <c r="E110" t="n">
-        <v>0.154218316078186</v>
+        <v>0.2847606241703033</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1748428642749786</v>
+        <v>0.2124306559562683</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8971859812736511</v>
+        <v>0.6422006487846375</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>1100117</t>
-        </is>
+      <c r="A111" s="1" t="n">
+        <v>1110216</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3047442734241485</v>
+        <v>0.4658965468406677</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2788276374340057</v>
+        <v>0.4484038949012756</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2357330918312072</v>
+        <v>0.3132377564907074</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1466235816478729</v>
+        <v>0.3081715703010559</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1197350025177002</v>
+        <v>0.2283542454242706</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6538519263267517</v>
+        <v>0.5122402310371399</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>1100118</t>
-        </is>
+      <c r="A112" s="1" t="n">
+        <v>1110217</v>
       </c>
       <c r="B112" t="n">
-        <v>0.300489604473114</v>
+        <v>0.4028283655643463</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2773919999599457</v>
+        <v>0.3449813723564148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2418353259563446</v>
+        <v>0.2948562502861023</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1971767395734787</v>
+        <v>0.1981149315834045</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0987095311284065</v>
+        <v>0.1699146032333374</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6903861165046692</v>
+        <v>0.612933874130249</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>1100119</t>
-        </is>
+      <c r="A113" s="1" t="n">
+        <v>1110218</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3791933059692383</v>
+        <v>0.4256069660186767</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3305398523807525</v>
+        <v>0.3654281497001648</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3235772848129272</v>
+        <v>0.314738929271698</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1926808059215545</v>
+        <v>0.2654390633106231</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1912563443183899</v>
+        <v>0.2029691040515899</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6407291889190674</v>
+        <v>0.5936832427978516</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>1110201</t>
-        </is>
+      <c r="A114" s="1" t="n">
+        <v>1110219</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1939883977174759</v>
+        <v>0.3833738565444946</v>
       </c>
       <c r="C114" t="n">
-        <v>0.241338238120079</v>
+        <v>0.2979406416416168</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4617919921875</v>
+        <v>0.3256463706493377</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1194368749856948</v>
+        <v>0.2022398114204406</v>
       </c>
       <c r="F114" t="n">
-        <v>0.200624793767929</v>
+        <v>0.2013256847858429</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2850459516048431</v>
+        <v>0.5536268949508667</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>1110202</t>
-        </is>
+      <c r="A115" s="1" t="n">
+        <v>1110220</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2904975414276123</v>
+        <v>0.5154739618301392</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4072347283363342</v>
+        <v>0.3995572328567505</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5075182914733887</v>
+        <v>0.2053651213645935</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1470857560634613</v>
+        <v>0.2921472787857055</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1969732642173767</v>
+        <v>0.105652816593647</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4222895205020904</v>
+        <v>0.5761451125144958</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>1110203</t>
-        </is>
+      <c r="A116" s="1" t="n">
+        <v>1110221</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3764569163322449</v>
+        <v>0.4964776635169983</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4642911553382873</v>
+        <v>0.2851941585540771</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3260000050067901</v>
+        <v>0.172486275434494</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2227179557085037</v>
+        <v>0.2217716872692108</v>
       </c>
       <c r="F116" t="n">
-        <v>0.179417535662651</v>
+        <v>0.1387482285499572</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5548207759857178</v>
+        <v>0.7771317362785339</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>1110204</t>
-        </is>
+      <c r="A117" s="1" t="n">
+        <v>1110222</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3727547526359558</v>
+        <v>0.3639073371887207</v>
       </c>
       <c r="C117" t="n">
-        <v>0.488939493894577</v>
+        <v>0.417995810508728</v>
       </c>
       <c r="D117" t="n">
-        <v>0.396791011095047</v>
+        <v>0.3057068586349487</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1973492354154586</v>
+        <v>0.2370627373456955</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1380330175161361</v>
+        <v>0.167076364159584</v>
       </c>
       <c r="G117" t="n">
-        <v>0.460293561220169</v>
+        <v>0.5022485256195068</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>1110205</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>1110223</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2022817730903625</v>
+        <v>0.447307139635086</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2752182781696319</v>
+        <v>0.4055160284042358</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4573078751564026</v>
+        <v>0.3600699603557586</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0855888575315475</v>
+        <v>0.2975194752216339</v>
       </c>
       <c r="F118" t="n">
-        <v>0.08815686404705041</v>
+        <v>0.2618583738803863</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3913977742195129</v>
+        <v>0.5515267848968506</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1110206</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>1110224</v>
       </c>
       <c r="B119" t="n">
-        <v>0.298050582408905</v>
+        <v>0.4434294104576111</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2587429881095886</v>
+        <v>0.3428065180778503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2394149601459503</v>
+        <v>0.2708808481693268</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0928512513637542</v>
+        <v>0.2141358852386474</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0917741879820823</v>
+        <v>0.1894647628068924</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8140276074409485</v>
+        <v>0.6660681962966919</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>1110207</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>1110225</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3453073799610138</v>
+        <v>0.3855080902576446</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5759589672088623</v>
+        <v>0.428058922290802</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3381323516368866</v>
+        <v>0.2859281003475189</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3038070499897003</v>
+        <v>0.2440930306911468</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1398793458938598</v>
+        <v>0.2006090879440307</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3737402558326721</v>
+        <v>0.58167564868927</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>1110208</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>1110226</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5032914280891418</v>
+        <v>0.3895639777183532</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4892200231552124</v>
+        <v>0.3609935045242309</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3403715789318084</v>
+        <v>0.2388068884611129</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2715683579444885</v>
+        <v>0.3082895278930664</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1735469102859497</v>
+        <v>0.1990751177072525</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5468867421150208</v>
+        <v>0.5689194202423096</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>1110209</t>
-        </is>
+      <c r="A122" s="1" t="n">
+        <v>1110227</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3628386259078979</v>
+        <v>0.3987177908420563</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3946065306663513</v>
+        <v>0.2938828766345978</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5270618796348572</v>
+        <v>0.2150205820798874</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1594214886426925</v>
+        <v>0.206519603729248</v>
       </c>
       <c r="F122" t="n">
-        <v>0.1899237334728241</v>
+        <v>0.1661771982908249</v>
       </c>
       <c r="G122" t="n">
-        <v>0.468503475189209</v>
+        <v>0.7173025608062744</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>1110210</t>
-        </is>
+      <c r="A123" s="1" t="n">
+        <v>1110228</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2620333135128021</v>
+        <v>0.3828522562980652</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4164010286331177</v>
+        <v>0.4283011555671692</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3783222436904907</v>
+        <v>0.3297420442104339</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1328438222408294</v>
+        <v>0.2864466607570648</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1378155201673507</v>
+        <v>0.1970754712820053</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5238243341445923</v>
+        <v>0.6074615716934204</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>1110211</t>
-        </is>
+      <c r="A124" s="1" t="n">
+        <v>1110229</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4094984531402588</v>
+        <v>0.4465667605400085</v>
       </c>
       <c r="C124" t="n">
-        <v>0.436108648777008</v>
+        <v>0.383508026599884</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3703434765338897</v>
+        <v>0.3547105193138122</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2611443996429443</v>
+        <v>0.2128661870956421</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2200586497783661</v>
+        <v>0.2161305546760559</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4361200928688049</v>
+        <v>0.6235531568527222</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>1110212</t>
-        </is>
+      <c r="A125" s="1" t="n">
+        <v>1110230</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3168917298316955</v>
+        <v>0.4707088768482208</v>
       </c>
       <c r="C125" t="n">
-        <v>0.486856997013092</v>
+        <v>0.4504942595958709</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3797084093093872</v>
+        <v>0.3195795118808746</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2685772180557251</v>
+        <v>0.2902885377407074</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1715382039546966</v>
+        <v>0.1740447431802749</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4730452299118042</v>
+        <v>0.4781516492366791</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>1110213</t>
-        </is>
+      <c r="A126" s="1" t="n">
+        <v>1110301</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4067338109016418</v>
+        <v>0.4870379865169525</v>
       </c>
       <c r="C126" t="n">
-        <v>0.366617202758789</v>
+        <v>0.1436712592840194</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3094078302383423</v>
+        <v>0.1436712741851806</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2819789052009582</v>
+        <v>0.0750217363238334</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2394726276397705</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.6204038262367249</v>
-      </c>
+        <v>0.0750217363238334</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>1110214</t>
-        </is>
+      <c r="A127" s="1" t="n">
+        <v>1110302</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3950210511684418</v>
+        <v>0.3345968127250671</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1802632808685302</v>
+        <v>0.1929575055837631</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2982400059700012</v>
+        <v>0.1929574757814407</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1427488178014755</v>
+        <v>0.08319685608148571</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1764565259218216</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.6119629740715027</v>
-      </c>
+        <v>0.0831968486309051</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1110215</t>
-        </is>
+      <c r="A128" s="1" t="n">
+        <v>1110303</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4487047791481018</v>
+        <v>0.1891008466482162</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3778133988380432</v>
+        <v>0.1691385209560394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2678539454936981</v>
+        <v>0.1691385358572006</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2847606241703033</v>
+        <v>0.0817387178540229</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2124306559562683</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.6422006487846375</v>
-      </c>
+        <v>0.0817387327551841</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>1110216</t>
-        </is>
+      <c r="A129" s="1" t="n">
+        <v>1110304</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4658965468406677</v>
+        <v>0.247502252459526</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4484038949012756</v>
+        <v>0.2376012951135635</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3132377564907074</v>
+        <v>0.2376013398170471</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3081715703010559</v>
+        <v>0.1114409640431404</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2283542454242706</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.5122402310371399</v>
-      </c>
+        <v>0.1114409789443016</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>1110217</t>
-        </is>
+      <c r="A130" s="1" t="n">
+        <v>1110305</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4028283655643463</v>
+        <v>0.4299255311489105</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3449813723564148</v>
+        <v>0.1861190944910049</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2948562502861023</v>
+        <v>0.1861191391944885</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1981149315834045</v>
+        <v>0.06838157773017881</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1699146032333374</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.612933874130249</v>
-      </c>
+        <v>0.0683816000819206</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>1110218</t>
-        </is>
+      <c r="A131" s="1" t="n">
+        <v>1110306</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4256069660186767</v>
+        <v>0.3580318391323089</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3654281497001648</v>
+        <v>0.2231830507516861</v>
       </c>
       <c r="D131" t="n">
-        <v>0.314738929271698</v>
+        <v>0.2231830954551696</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2654390633106231</v>
+        <v>0.1054107621312141</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2029691040515899</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.5936832427978516</v>
-      </c>
+        <v>0.1054107770323753</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>1110219</t>
-        </is>
+      <c r="A132" s="1" t="n">
+        <v>1110307</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3833738565444946</v>
+        <v>0.369705319404602</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2979406416416168</v>
+        <v>0.2100856006145477</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3256463706493377</v>
+        <v>0.2100856304168701</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2022398114204406</v>
+        <v>0.1240817233920097</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2013256847858429</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.5536268949508667</v>
-      </c>
+        <v>0.1240817308425903</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>1110220</t>
-        </is>
+      <c r="A133" s="1" t="n">
+        <v>1110308</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5154739618301392</v>
+        <v>0.3272612988948822</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3995572328567505</v>
+        <v>0.189558133482933</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2053651213645935</v>
+        <v>0.1895581483840942</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2921472787857055</v>
+        <v>0.0725246369838714</v>
       </c>
       <c r="F133" t="n">
-        <v>0.105652816593647</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.5761451125144958</v>
-      </c>
+        <v>0.072524644434452</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>1110221</t>
-        </is>
+      <c r="A134" s="1" t="n">
+        <v>1110309</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4964776635169983</v>
+        <v>0.2253362834453582</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2851941585540771</v>
+        <v>0.2322349697351455</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172486275434494</v>
+        <v>0.2322350144386291</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2217716872692108</v>
+        <v>0.1053797528147697</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1387482285499572</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.7771317362785339</v>
-      </c>
+        <v>0.1053797304630279</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>1110222</t>
-        </is>
+      <c r="A135" s="1" t="n">
+        <v>1110310</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3639073371887207</v>
+        <v>0.4658174812793731</v>
       </c>
       <c r="C135" t="n">
-        <v>0.417995810508728</v>
+        <v>0.1648453921079635</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3057068586349487</v>
+        <v>0.1648454070091247</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2370627373456955</v>
+        <v>0.1023532822728157</v>
       </c>
       <c r="F135" t="n">
-        <v>0.167076364159584</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.5022485256195068</v>
-      </c>
+        <v>0.1023533046245575</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>1110223</t>
-        </is>
+      <c r="A136" s="1" t="n">
+        <v>1110311</v>
       </c>
       <c r="B136" t="n">
-        <v>0.447307139635086</v>
+        <v>0.3190792202949524</v>
       </c>
       <c r="C136" t="n">
-        <v>0.4055160284042358</v>
+        <v>0.2574956119060516</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3600699603557586</v>
+        <v>0.257495641708374</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2975194752216339</v>
+        <v>0.1092177703976631</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2618583738803863</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.5515267848968506</v>
-      </c>
+        <v>0.1092177778482437</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>1110224</t>
-        </is>
+      <c r="A137" s="1" t="n">
+        <v>1110312</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4434294104576111</v>
+        <v>0.3653466403484344</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3428065180778503</v>
+        <v>0.1966729313135147</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2708808481693268</v>
+        <v>0.1966729462146759</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2141358852386474</v>
+        <v>0.1057624146342277</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1894647628068924</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.6660681962966919</v>
-      </c>
+        <v>0.1057624146342277</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>1110225</t>
-        </is>
+      <c r="A138" s="1" t="n">
+        <v>1110313</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3855080902576446</v>
+        <v>0.1856343150138855</v>
       </c>
       <c r="C138" t="n">
-        <v>0.428058922290802</v>
+        <v>0.2192460000514984</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2859281003475189</v>
+        <v>0.219245970249176</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2440930306911468</v>
+        <v>0.0510329268872737</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2006090879440307</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.58167564868927</v>
-      </c>
+        <v>0.051032930612564</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>1110226</t>
-        </is>
+      <c r="A139" s="1" t="n">
+        <v>1110314</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3895639777183532</v>
+        <v>0.2856861352920532</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3609935045242309</v>
+        <v>0.2040537446737289</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2388068884611129</v>
+        <v>0.2040537148714065</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3082895278930664</v>
+        <v>0.0609758198261261</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1990751177072525</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.5689194202423096</v>
-      </c>
+        <v>0.0609758086502552</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>1110227</t>
-        </is>
+      <c r="A140" s="1" t="n">
+        <v>1110315</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3987177908420563</v>
+        <v>0.3651661872863769</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2938828766345978</v>
+        <v>0.204119935631752</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2150205820798874</v>
+        <v>0.2041199654340744</v>
       </c>
       <c r="E140" t="n">
-        <v>0.206519603729248</v>
+        <v>0.0837132036685943</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1661771982908249</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.7173025608062744</v>
-      </c>
+        <v>0.0837132036685943</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>1110228</t>
-        </is>
+      <c r="A141" s="1" t="n">
+        <v>1110316</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3828522562980652</v>
+        <v>0.1737712174654007</v>
       </c>
       <c r="C141" t="n">
-        <v>0.4283011555671692</v>
+        <v>0.1689884960651397</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3297420442104339</v>
+        <v>0.1689885258674621</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2864466607570648</v>
+        <v>0.1084430292248725</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1970754712820053</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.6074615716934204</v>
-      </c>
+        <v>0.1084430515766143</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>1110229</t>
-        </is>
+      <c r="A142" s="1" t="n">
+        <v>1110317</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4465667605400085</v>
+        <v>0.4276786148548126</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383508026599884</v>
+        <v>0.2309698909521103</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3547105193138122</v>
+        <v>0.2309699058532714</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2128661870956421</v>
+        <v>0.1323996633291244</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2161305546760559</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.6235531568527222</v>
-      </c>
+        <v>0.1323996484279632</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>1110230</t>
-        </is>
+      <c r="A143" s="1" t="n">
+        <v>1110318</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4707088768482208</v>
+        <v>0.3222603797912597</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4504942595958709</v>
+        <v>0.1641627699136734</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3195795118808746</v>
+        <v>0.1641627848148346</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2902885377407074</v>
+        <v>0.08329806476831431</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1740447431802749</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.4781516492366791</v>
-      </c>
+        <v>0.0832980573177337</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>1110301</t>
-        </is>
+      <c r="A144" s="1" t="n">
+        <v>1110319</v>
       </c>
       <c r="B144" t="n">
-        <v>0.4870379865169525</v>
+        <v>0.449932336807251</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1436712592840194</v>
+        <v>0.2565706670284271</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1436712741851806</v>
+        <v>0.2565706968307495</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0750217363238334</v>
+        <v>0.1317635923624038</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0750217363238334</v>
+        <v>0.131763607263565</v>
       </c>
       <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>1110302</t>
-        </is>
+      <c r="A145" s="1" t="n">
+        <v>1110320</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3345968127250671</v>
+        <v>0.3414073586463928</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1929575055837631</v>
+        <v>0.258093386888504</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1929574757814407</v>
+        <v>0.258093386888504</v>
       </c>
       <c r="E145" t="n">
-        <v>0.08319685608148571</v>
+        <v>0.1552441865205764</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0831968486309051</v>
+        <v>0.1552442014217376</v>
       </c>
       <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>1110303</t>
-        </is>
+      <c r="A146" s="1" t="n">
+        <v>1110321</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1891008466482162</v>
+        <v>0.3670603334903717</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1691385209560394</v>
+        <v>0.1770521402359008</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1691385358572006</v>
+        <v>0.177052155137062</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0817387178540229</v>
+        <v>0.1011097580194473</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0817387327551841</v>
+        <v>0.1011097729206085</v>
       </c>
       <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>1110304</t>
-        </is>
+      <c r="A147" s="1" t="n">
+        <v>1110322</v>
       </c>
       <c r="B147" t="n">
-        <v>0.247502252459526</v>
+        <v>0.3093900084495544</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2376012951135635</v>
+        <v>0.2146703898906707</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2376013398170471</v>
+        <v>0.2146704196929931</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1114409640431404</v>
+        <v>0.1304122060537338</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1114409789443016</v>
+        <v>0.1304121911525726</v>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>1110305</t>
-        </is>
+      <c r="A148" s="1" t="n">
+        <v>1110323</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4299255311489105</v>
+        <v>0.3691219091415405</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1861190944910049</v>
+        <v>0.1733806133270263</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1861191391944885</v>
+        <v>0.1733806431293487</v>
       </c>
       <c r="E148" t="n">
-        <v>0.06838157773017881</v>
+        <v>0.1144888922572135</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0683816000819206</v>
+        <v>0.1144888922572135</v>
       </c>
       <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>1110306</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>1110324</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3580318391323089</v>
+        <v>0.4850252866744995</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2231830507516861</v>
+        <v>0.1507018953561782</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2231830954551696</v>
+        <v>0.1507019102573394</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1054107621312141</v>
+        <v>0.1118757277727127</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1054107770323753</v>
+        <v>0.1118757426738739</v>
       </c>
       <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>1110307</t>
-        </is>
+      <c r="A150" s="1" t="n">
+        <v>1110325</v>
       </c>
       <c r="B150" t="n">
-        <v>0.369705319404602</v>
+        <v>0.446085512638092</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2100856006145477</v>
+        <v>0.2325518280267715</v>
       </c>
       <c r="D150" t="n">
-        <v>0.2100856304168701</v>
+        <v>0.2325518429279327</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1240817233920097</v>
+        <v>0.1042835712432861</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1240817308425903</v>
+        <v>0.1042835712432861</v>
       </c>
       <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>1110308</t>
-        </is>
+      <c r="A151" s="1" t="n">
+        <v>1110326</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3272612988948822</v>
+        <v>0.254463642835617</v>
       </c>
       <c r="C151" t="n">
-        <v>0.189558133482933</v>
+        <v>0.2096885442733764</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1895581483840942</v>
+        <v>0.2096885293722152</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0725246369838714</v>
+        <v>0.0417413152754306</v>
       </c>
       <c r="F151" t="n">
-        <v>0.072524644434452</v>
+        <v>0.0417413152754306</v>
       </c>
       <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>1110309</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.2253362834453582</v>
-      </c>
+      <c r="A152" s="1" t="n">
+        <v>1070117</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>0.2322349697351455</v>
+        <v>0.6274855732917786</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2322350144386291</v>
+        <v>0.6922712326049805</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1053797528147697</v>
+        <v>0.6274855732917786</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1053797304630279</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+        <v>0.6922712326049805</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5048952698707581</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>1110310</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4658174812793731</v>
-      </c>
+      <c r="A153" s="1" t="n">
+        <v>1080426</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>0.1648453921079635</v>
+        <v>0.5834107995033264</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1648454070091247</v>
+        <v>0.6799335479736328</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1023532822728157</v>
+        <v>0.5834107995033264</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1023533046245575</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+        <v>0.6799335479736328</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.5004982948303223</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>1110311</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.3190792202949524</v>
-      </c>
+      <c r="A154" s="1" t="n">
+        <v>1110133</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>0.2574956119060516</v>
+        <v>0.7082770466804504</v>
       </c>
       <c r="D154" t="n">
-        <v>0.257495641708374</v>
+        <v>0.9132122397422791</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1092177703976631</v>
+        <v>0.7082770466804504</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1092177778482437</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+        <v>0.9132122397422791</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.656460165977478</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>1110312</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.3653466403484344</v>
-      </c>
+      <c r="A155" s="1" t="n">
+        <v>1110134</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>0.1966729313135147</v>
+        <v>0.5260283946990967</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1966729462146759</v>
+        <v>0.6877796649932861</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1057624146342277</v>
+        <v>0.5260283946990967</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1057624146342277</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
+        <v>0.6877796649932861</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5030115842819214</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>1110313</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.1856343150138855</v>
-      </c>
+      <c r="A156" s="1" t="n">
+        <v>1110135</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>0.2192460000514984</v>
+        <v>0.5175077319145203</v>
       </c>
       <c r="D156" t="n">
-        <v>0.219245970249176</v>
+        <v>0.8256728649139404</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0510329268872737</v>
+        <v>0.5175077319145203</v>
       </c>
       <c r="F156" t="n">
-        <v>0.051032930612564</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
+        <v>0.8256728649139404</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.5020877122879028</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>1110314</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.2856861352920532</v>
-      </c>
+      <c r="A157" s="1" t="n">
+        <v>1110136</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>0.2040537446737289</v>
+        <v>0.5238467454910278</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2040537148714065</v>
+        <v>0.8744227886199951</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0609758198261261</v>
+        <v>0.5238467454910278</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0609758086502552</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
+        <v>0.8744227886199951</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.5059666037559509</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>1110315</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.3651661872863769</v>
-      </c>
+      <c r="A158" s="1" t="n">
+        <v>1110137</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>0.204119935631752</v>
+        <v>0.5025897622108459</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2041199654340744</v>
+        <v>0.9564583897590636</v>
       </c>
       <c r="E158" t="n">
-        <v>0.0837132036685943</v>
+        <v>0.5025897622108459</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0837132036685943</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+        <v>0.9564583897590636</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.4960814714431762</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>1110316</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.1737712174654007</v>
-      </c>
+      <c r="A159" s="1" t="n">
+        <v>1110138</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>0.1689884960651397</v>
+        <v>0.620646595954895</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1689885258674621</v>
+        <v>0.4054701030254364</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1084430292248725</v>
+        <v>0.620646595954895</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1084430515766143</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>0.4054701030254364</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.4072674512863159</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>1110317</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.4276786148548126</v>
-      </c>
+      <c r="A160" s="1" t="n">
+        <v>1110139</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>0.2309698909521103</v>
+        <v>0.3586191833019256</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2309699058532714</v>
+        <v>0.5938689708709717</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1323996633291244</v>
+        <v>0.3586191833019256</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1323996484279632</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+        <v>0.5938689708709717</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.4561934471130371</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>1110318</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.3222603797912597</v>
-      </c>
+      <c r="A161" s="1" t="n">
+        <v>1110140</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>0.1641627699136734</v>
+        <v>0.7802468538284302</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1641627848148346</v>
+        <v>0.667780339717865</v>
       </c>
       <c r="E161" t="n">
-        <v>0.08329806476831431</v>
+        <v>0.7802468538284302</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0832980573177337</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+        <v>0.667780339717865</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5780305862426758</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>1110319</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.449932336807251</v>
-      </c>
+      <c r="A162" s="1" t="n">
+        <v>1110141</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>0.2565706670284271</v>
+        <v>0.7184431552886963</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2565706968307495</v>
+        <v>0.6444476842880249</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1317635923624038</v>
+        <v>0.7184431552886963</v>
       </c>
       <c r="F162" t="n">
-        <v>0.131763607263565</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+        <v>0.6444476842880249</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.5417449474334717</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>1110320</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0.3414073586463928</v>
-      </c>
+      <c r="A163" s="1" t="n">
+        <v>1110142</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>0.258093386888504</v>
+        <v>0.7858837246894836</v>
       </c>
       <c r="D163" t="n">
-        <v>0.258093386888504</v>
+        <v>0.687736988067627</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1552441865205764</v>
+        <v>0.7858837246894836</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1552442014217376</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
+        <v>0.687736988067627</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.5964857339859009</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>1110321</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0.3670603334903717</v>
-      </c>
+      <c r="A164" s="1" t="n">
+        <v>1110143</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>0.1770521402359008</v>
+        <v>0.6144396662712097</v>
       </c>
       <c r="D164" t="n">
-        <v>0.177052155137062</v>
+        <v>0.8308464884757996</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1011097580194473</v>
+        <v>0.6144396662712097</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1011097729206085</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>0.8308464884757996</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5477469563484192</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>1110322</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.3093900084495544</v>
-      </c>
+      <c r="A165" s="1" t="n">
+        <v>1110144</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>0.2146703898906707</v>
+        <v>0.6100761294364929</v>
       </c>
       <c r="D165" t="n">
-        <v>0.2146704196929931</v>
+        <v>0.6970326900482178</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1304122060537338</v>
+        <v>0.6100761294364929</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1304121911525726</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+        <v>0.6970326900482178</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.5071947574615479</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>1110323</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0.3691219091415405</v>
-      </c>
+      <c r="A166" s="1" t="n">
+        <v>1110145</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>0.1733806133270263</v>
+        <v>0.8094872236251831</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1733806431293487</v>
+        <v>0.7647912502288818</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1144888922572135</v>
+        <v>0.8094872236251831</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1144888922572135</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+        <v>0.7647912502288818</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.6606908440589905</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>1110324</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.4850252866744995</v>
-      </c>
+      <c r="A167" s="1" t="n">
+        <v>1110146</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>0.1507018953561782</v>
+        <v>0.711630642414093</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1507019102573394</v>
+        <v>0.6155720353126526</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1118757277727127</v>
+        <v>0.711630642414093</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1118757426738739</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
+        <v>0.6155720353126526</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.524615466594696</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>1110325</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.446085512638092</v>
-      </c>
+      <c r="A168" s="1" t="n">
+        <v>1110147</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>0.2325518280267715</v>
+        <v>0.5900412797927856</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2325518429279327</v>
+        <v>0.7985501289367676</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1042835712432861</v>
+        <v>0.5900412797927856</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1042835712432861</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+        <v>0.7985501289367676</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.5285055041313171</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>1110326</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.254463642835617</v>
-      </c>
+      <c r="A169" s="1" t="n">
+        <v>1110148</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>0.2096885442733764</v>
+        <v>0.7146986722946167</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2096885293722152</v>
+        <v>0.7941915988922119</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0417413152754306</v>
+        <v>0.7146986722946167</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0417413152754306</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>0.7941915988922119</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.6135894060134888</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>1070117</t>
-        </is>
+      <c r="A170" s="1" t="n">
+        <v>1110149</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>0.6274855732917786</v>
+        <v>0.7250607013702393</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6922712326049805</v>
+        <v>0.9341000318527222</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6274855732917786</v>
+        <v>0.7250607013702393</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6922712326049805</v>
+        <v>0.9341000318527222</v>
       </c>
       <c r="G170" t="n">
-        <v>0.5048952698707581</v>
+        <v>0.6891992092132568</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>1080426</t>
-        </is>
+      <c r="A171" s="1" t="n">
+        <v>1110150</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>0.5834107995033264</v>
+        <v>0.5336223244667053</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6799335479736328</v>
+        <v>0.9808077216148376</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5834107995033264</v>
+        <v>0.5336223244667053</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6799335479736328</v>
+        <v>0.9808077216148376</v>
       </c>
       <c r="G171" t="n">
-        <v>0.5004982948303223</v>
+        <v>0.5295951366424561</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>1110133</t>
-        </is>
+      <c r="A172" s="1" t="n">
+        <v>1110151</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>0.7082770466804504</v>
+        <v>0.5255711078643799</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9132122397422791</v>
+        <v>0.6271684765815735</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7082770466804504</v>
+        <v>0.5255711078643799</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9132122397422791</v>
+        <v>0.6271684765815735</v>
       </c>
       <c r="G172" t="n">
-        <v>0.656460165977478</v>
+        <v>0.4883367121219635</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>1110134</t>
-        </is>
+      <c r="A173" s="1" t="n">
+        <v>1110152</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>0.5260283946990967</v>
+        <v>0.6160967350006104</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6877796649932861</v>
+        <v>0.7232086658477783</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5260283946990967</v>
+        <v>0.6160967350006104</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6877796649932861</v>
+        <v>0.7232086658477783</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5030115842819214</v>
+        <v>0.5417703986167908</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>1110135</t>
-        </is>
+      <c r="A174" s="1" t="n">
+        <v>1110153</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.5175077319145203</v>
+        <v>0.6294466853141785</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8256728649139404</v>
+        <v>0.85596764087677</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5175077319145203</v>
+        <v>0.6294466853141785</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8256728649139404</v>
+        <v>0.85596764087677</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5020877122879028</v>
+        <v>0.5876903533935547</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>1110136</t>
-        </is>
+      <c r="A175" s="1" t="n">
+        <v>1110154</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>0.5238467454910278</v>
+        <v>0.7644731998443604</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8744227886199951</v>
+        <v>0.849656879901886</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5238467454910278</v>
+        <v>0.7644731998443604</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8744227886199951</v>
+        <v>0.849656879901886</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5059666037559509</v>
+        <v>0.6700460314750671</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>1110137</t>
-        </is>
+      <c r="A176" s="1" t="n">
+        <v>1110156</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>0.5025897622108459</v>
+        <v>0.6524337530136108</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9564583897590636</v>
+        <v>0.576479971408844</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5025897622108459</v>
+        <v>0.6524337530136108</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9564583897590636</v>
+        <v>0.576479971408844</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4960814714431762</v>
+        <v>0.5035896897315979</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>1110138</t>
-        </is>
+      <c r="A177" s="1" t="n">
+        <v>1110158</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>0.620646595954895</v>
+        <v>0.8130525350570679</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4054701030254364</v>
+        <v>0.4404892921447754</v>
       </c>
       <c r="E177" t="n">
-        <v>0.620646595954895</v>
+        <v>0.8130525350570679</v>
       </c>
       <c r="F177" t="n">
-        <v>0.4054701030254364</v>
+        <v>0.4404892921447754</v>
       </c>
       <c r="G177" t="n">
-        <v>0.4072674512863159</v>
+        <v>0.4363824129104614</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>1110139</t>
-        </is>
+      <c r="A178" s="1" t="n">
+        <v>1110159</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>0.3586191833019256</v>
+        <v>0.7901930212974548</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5938689708709717</v>
+        <v>0.9136126041412354</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3586191833019256</v>
+        <v>0.7901930212974548</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5938689708709717</v>
+        <v>0.9136126041412354</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4561934471130371</v>
+        <v>0.7308844327926636</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>1110140</t>
-        </is>
+      <c r="A179" s="1" t="n">
+        <v>1110160</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>0.7802468538284302</v>
+        <v>0.8231167793273926</v>
       </c>
       <c r="D179" t="n">
-        <v>0.667780339717865</v>
+        <v>0.9134302139282228</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7802468538284302</v>
+        <v>0.8231167793273926</v>
       </c>
       <c r="F179" t="n">
-        <v>0.667780339717865</v>
+        <v>0.9134302139282228</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5780305862426758</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>1110141</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
-        <v>0.7184431552886963</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.6444476842880249</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.7184431552886963</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.6444476842880249</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.5417449474334717</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>1110142</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
-        <v>0.7858837246894836</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.687736988067627</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.7858837246894836</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.687736988067627</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.5964857339859009</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>1110143</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
-        <v>0.6144396662712097</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.8308464884757996</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.6144396662712097</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.8308464884757996</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.5477469563484192</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>1110144</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>0.6100761294364929</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.6970326900482178</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.6100761294364929</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.6970326900482178</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.5071947574615479</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>1110145</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
-        <v>0.8094872236251831</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.7647912502288818</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.8094872236251831</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.7647912502288818</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.6606908440589905</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>1110146</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
-        <v>0.711630642414093</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.6155720353126526</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.711630642414093</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.6155720353126526</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.524615466594696</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>1110147</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
-        <v>0.5900412797927856</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.7985501289367676</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.5900412797927856</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.7985501289367676</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.5285055041313171</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>1110148</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
-        <v>0.7146986722946167</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.7941915988922119</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.7146986722946167</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.7941915988922119</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.6135894060134888</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>1110149</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
-        <v>0.7250607013702393</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.9341000318527222</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.7250607013702393</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.9341000318527222</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.6891992092132568</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>1110150</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
-        <v>0.5336223244667053</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.9808077216148376</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.5336223244667053</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.9808077216148376</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.5295951366424561</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>1110151</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
-        <v>0.5255711078643799</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.6271684765815735</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.5255711078643799</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.6271684765815735</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.4883367121219635</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>1110152</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
-        <v>0.6160967350006104</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.7232086658477783</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.6160967350006104</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.7232086658477783</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.5417703986167908</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>1110153</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
-        <v>0.6294466853141785</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.85596764087677</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.6294466853141785</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.85596764087677</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.5876903533935547</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>1110154</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="n">
-        <v>0.7644731998443604</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.849656879901886</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.7644731998443604</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.849656879901886</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.6700460314750671</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>1110156</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
-        <v>0.6524337530136108</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.576479971408844</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.6524337530136108</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.576479971408844</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.5035896897315979</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>1110158</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
-        <v>0.8130525350570679</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.4404892921447754</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.8130525350570679</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.4404892921447754</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.4363824129104614</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>1110159</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
-        <v>0.7901930212974548</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.9136126041412354</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.7901930212974548</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.9136126041412354</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.7308844327926636</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>1110160</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>0.8231167793273926</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.9134302139282228</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.8231167793273926</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.9134302139282228</v>
-      </c>
-      <c r="G197" t="n">
         <v>0.765175998210907</v>
       </c>
     </row>
